--- a/biology/Médecine/Jacob_Reinbold_Spielmann/Jacob_Reinbold_Spielmann.xlsx
+++ b/biology/Médecine/Jacob_Reinbold_Spielmann/Jacob_Reinbold_Spielmann.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jacob Reinbold Spielmann est un chimiste, pharmacien et médecin français, né à Strasbourg le 31 mars 1722, mort dans cette ville le 9 septembre 1783. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fit ses études médicales dans sa ville natale, puis entreprit en Allemagne un voyage et s’arrêta à Berlin pour suivre les cours des médecins et des naturalistes qui y brillaient alors. En 1742, il alla à Fribourg, où il s’appliqua à l’étude de la métallurgie, passa ensuite quelques mois à Paris, et, de retour dans sa ville natale, il se fit agréger au collège des apothicaires. Reçu docteur en médecine en 1748, il fut nommé l’année suivante professeur extraordinaire de médecine et, trois ans après, professeur ordinaire de chimie, de botanique et de matière médicale.
-Une rue de Strasbourg porte le nom de sa famille, dont il est le plus illustre représentant[1].
+Une rue de Strasbourg porte le nom de sa famille, dont il est le plus illustre représentant.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C’est un remarquable savant, dont le principal ouvrage a pour titre : Institutions chemiæ, prælectionibus academicis accommodatæ (Strasbourg, 1763, in-8°). 
 Nous citerons encore : 
